--- a/有好货页面/id_1908030/需求表格.xlsx
+++ b/有好货页面/id_1908030/需求表格.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>页面</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>SwitchButton组件</t>
+  </si>
+  <si>
+    <t>内容放不下时加...</t>
+  </si>
+  <si>
+    <t>掘进 简书 cnblog</t>
   </si>
 </sst>
 </file>
@@ -99,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,6 +122,111 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -127,23 +238,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,115 +269,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,109 +285,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,73 +459,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,26 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,19 +500,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,156 +554,167 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="20.1666666666667" customWidth="1"/>
@@ -1063,13 +1063,13 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
@@ -1131,7 +1131,7 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1155,8 +1155,18 @@
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/有好货页面/id_1908030/需求表格.xlsx
+++ b/有好货页面/id_1908030/需求表格.xlsx
@@ -106,9 +106,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,6 +127,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -134,14 +141,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -149,13 +156,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -164,14 +164,92 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,84 +269,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -285,181 +285,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,11 +473,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,45 +508,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,15 +529,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -570,16 +537,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,16 +588,16 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,115 +606,115 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1043,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
